--- a/Depot Code.xlsx
+++ b/Depot Code.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671CCBC6-AA95-4FA8-95DA-1A93404714CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F5FDC9-B872-4749-88AB-57383C22DEE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Depot ২৫'!$A$3:$D$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Depot 23'!$A$1:$F$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Depot 24 (latest)'!$A$1:$I$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Depot ২৫'!$A$1:$M$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Depot ২৫'!$A$1:$I$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
   <si>
     <t>Code</t>
   </si>
@@ -207,61 +207,69 @@
     <t>অর্থাৎ অসৎ হতে সৎস্বরৃপে নিয়ে যাও, অন্ধকার হতে আলোয় নিয়ে  যাও, মৃত্যু হতে  আমাকে অমৃতে নিয়ে  যাও।</t>
   </si>
   <si>
-    <r>
-      <t>‘‘যিনি বিশ্বের সৃষ্টি-স্থিতি-লয়ের কারন স্বরূপ, যিনি সৎ-চিৎ-আনন্দময়  এবং আমাদের বুদ্ধির প্রেরণা দাতা, সেই সদালীলাময় জগৎস্রষ্টা পরমেশ্বরের বরণীয় জ্যোতির্ময় তেজ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Nirmala UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>রুপকে ধ্যান করি। 
-তিনি যেন  আমাদের বুদ্ধিবৃত্তিকে সর্বদা কল্যাণময় কার্যে নিয়োজিত করেন। ”</t>
-    </r>
-  </si>
-  <si>
     <t>ওঁ ত্র্যম্বকং যজামহে সুগন্ধিং পুষ্টিবর্ধনম্। 
 উর্বারুকমিব বন্ধনান্ মৃত্যোর্মুক্ষীয় মাঽমৃতাৎ।।</t>
   </si>
   <si>
     <t>(ঋগবেদ ৭/৫৯/১২)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">অর্থাৎ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>হে ত্রিনয়ন আমাদের জীবনকে সুগন্ধে ভরিয়ে তোল। সকল বন্ধন থেকে মুক্তি দিয়ে আমাদের মৃত্যু হতে অমৃততে নিয়ে যাও</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>।</t>
-    </r>
   </si>
   <si>
     <t>ওঁ ভূর্ভুবঃ স্বঃ
 তৎসবিতুর্বরেণ্যং ।
 ভর্গো দেবস্য ধীমহি
 ধিয়ো য়ো নঃ প্রচোদয়াৎ।।</t>
+  </si>
+  <si>
+    <t>80k</t>
+  </si>
+  <si>
+    <t>90k</t>
+  </si>
+  <si>
+    <t>70k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>অর্থাৎ হে ত্রিনয়ন আমাদের জীবনকে সুগন্ধে ভরিয়ে তোল। সকল বন্ধন থেকে মুক্তি দিয়ে আমাদের মৃত্যু হতে অমৃততে নিয়ে যাও।</t>
+  </si>
+  <si>
+    <t>MRC
+LIMIT</t>
+  </si>
+  <si>
+    <t>‘‘যিনি ত্রিলোক স্রষ্টা অর্থাৎ সমগ্র বিশ্ব জগতের প্রসবিতা, সেই সচ্চিদানন্দঘন পরব্রহ্মের বরণীয় জ্যোতিকে আমরা ধ্যান করি। তিনি আমাদের মন ও বুদ্ধিকে শুভ কার্যে প্রেরণা দান করুন।"</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>80 k</t>
+  </si>
+  <si>
+    <t>81 k</t>
+  </si>
+  <si>
+    <t>82 k</t>
+  </si>
+  <si>
+    <t>83 k</t>
+  </si>
+  <si>
+    <t>84 k</t>
+  </si>
+  <si>
+    <t>70 k</t>
+  </si>
+  <si>
+    <t>71 k</t>
+  </si>
+  <si>
+    <t>90 k</t>
+  </si>
+  <si>
+    <t>100 k</t>
   </si>
 </sst>
 </file>
@@ -271,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; K&quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,13 +419,37 @@
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Nirmala UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFFF0000"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Nirmala UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <color rgb="FF050505"/>
+      <name val="Nirmala UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Nirmala UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -456,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -597,6 +629,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -627,17 +678,26 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -780,15 +840,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>191908</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>127069</xdr:rowOff>
+      <xdr:colOff>44704</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>179023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>773919</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>106738</xdr:rowOff>
+      <xdr:colOff>891886</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>54784</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -817,8 +877,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="191908" y="6019431"/>
-          <a:ext cx="5640114" cy="2272238"/>
+          <a:off x="44704" y="6370273"/>
+          <a:ext cx="5713591" cy="2291647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1561,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F56A9B1-1685-41C3-944A-0ECE7B44A2CB}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="F32" sqref="F32:I33"/>
     </sheetView>
   </sheetViews>
@@ -1581,12 +1641,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52">
+      <c r="A1" s="59">
         <v>2024</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="36"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
@@ -1598,13 +1658,13 @@
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -1619,11 +1679,11 @@
       <c r="D3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,11 +1697,11 @@
         <v>100</v>
       </c>
       <c r="D4" s="24"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
@@ -1656,11 +1716,11 @@
       <c r="D5" s="24">
         <v>800</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -1675,7 +1735,7 @@
       <c r="D6" s="24">
         <v>800</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -1696,13 +1756,13 @@
       <c r="D7" s="24">
         <v>800</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -1717,11 +1777,11 @@
       <c r="D8" s="24">
         <v>800</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
@@ -1736,11 +1796,11 @@
       <c r="D9" s="24">
         <v>850</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
@@ -1755,11 +1815,11 @@
       <c r="D10" s="24">
         <v>800</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
@@ -1774,7 +1834,7 @@
       <c r="D11" s="24">
         <v>800</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -1793,13 +1853,13 @@
       <c r="D12" s="24">
         <v>800</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="56" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
@@ -1814,11 +1874,11 @@
       <c r="D13" s="24">
         <v>950</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
     </row>
     <row r="14" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
@@ -1831,7 +1891,7 @@
         <v>80</v>
       </c>
       <c r="D14" s="24"/>
-      <c r="E14" s="53"/>
+      <c r="E14" s="60"/>
       <c r="I14" s="41" t="s">
         <v>40</v>
       </c>
@@ -1848,13 +1908,13 @@
         <v>90</v>
       </c>
       <c r="D15" s="24"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="57" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,11 +1928,11 @@
         <v>90</v>
       </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1886,11 +1946,11 @@
         <v>70</v>
       </c>
       <c r="D17" s="24"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1904,7 +1964,7 @@
         <v>70</v>
       </c>
       <c r="D18" s="24"/>
-      <c r="E18" s="53"/>
+      <c r="E18" s="60"/>
       <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,7 +1978,7 @@
         <v>100</v>
       </c>
       <c r="D19" s="24"/>
-      <c r="E19" s="53"/>
+      <c r="E19" s="60"/>
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1932,13 +1992,13 @@
         <v>80</v>
       </c>
       <c r="D20" s="24"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="58" t="s">
+      <c r="E20" s="60"/>
+      <c r="F20" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1952,11 +2012,11 @@
         <v>70</v>
       </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1970,11 +2030,11 @@
         <v>90</v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1988,7 +2048,7 @@
         <v>70</v>
       </c>
       <c r="D23" s="24"/>
-      <c r="E23" s="53"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
@@ -2008,13 +2068,13 @@
         <v>100</v>
       </c>
       <c r="D24" s="24"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="59" t="s">
+      <c r="E24" s="60"/>
+      <c r="F24" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
       <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2028,11 +2088,11 @@
         <v>70</v>
       </c>
       <c r="D25" s="24"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2046,7 +2106,7 @@
         <v>100</v>
       </c>
       <c r="D26" s="24"/>
-      <c r="E26" s="53"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
@@ -2064,13 +2124,13 @@
         <v>80</v>
       </c>
       <c r="D27" s="24"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="58" t="s">
+      <c r="E27" s="60"/>
+      <c r="F27" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
       <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2084,11 +2144,11 @@
         <v>70</v>
       </c>
       <c r="D28" s="24"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
       <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2102,11 +2162,11 @@
         <v>80</v>
       </c>
       <c r="D29" s="24"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2120,11 +2180,11 @@
         <v>80</v>
       </c>
       <c r="D30" s="24"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2138,7 +2198,7 @@
         <v>80</v>
       </c>
       <c r="D31" s="24"/>
-      <c r="E31" s="53"/>
+      <c r="E31" s="60"/>
       <c r="H31" s="31"/>
       <c r="I31" s="41" t="s">
         <v>32</v>
@@ -2156,21 +2216,21 @@
         <v>80</v>
       </c>
       <c r="D32" s="24"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="59" t="s">
+      <c r="E32" s="60"/>
+      <c r="F32" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
       <c r="J32" s="31"/>
     </row>
     <row r="33" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="53"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
     </row>
     <row r="34" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="43"/>
@@ -2180,17 +2240,17 @@
       <c r="I34" s="42"/>
     </row>
     <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
     </row>
     <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2221,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B212BD04-E218-4A17-A678-5E27207A823C}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:I34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -2230,10 +2290,10 @@
     <col min="1" max="1" width="15" style="40" customWidth="1"/>
     <col min="2" max="2" width="7" style="29" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="2.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" style="35" customWidth="1"/>
     <col min="6" max="8" width="11" style="35" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="35" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="35" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="31" customWidth="1"/>
     <col min="11" max="11" width="10" style="31" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="31" customWidth="1"/>
@@ -2243,12 +2303,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52">
-        <v>2024</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="A1" s="59">
+        <v>2025</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
@@ -2264,15 +2324,15 @@
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="1:14" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="60"/>
+      <c r="F2" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+    </row>
+    <row r="3" spans="1:14" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
@@ -2282,476 +2342,503 @@
       <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="D3" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="N3" s="30"/>
     </row>
-    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="32">
-        <v>821</v>
-      </c>
-      <c r="C4" s="33">
-        <v>100</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="51">
+        <v>806</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="51">
+        <v>850</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="32">
-        <v>828</v>
-      </c>
-      <c r="C5" s="33">
-        <v>80</v>
-      </c>
-      <c r="D5" s="24">
+        <v>5</v>
+      </c>
+      <c r="B5" s="51">
+        <v>802</v>
+      </c>
+      <c r="C5" s="51">
+        <v>90</v>
+      </c>
+      <c r="D5" s="51">
         <v>800</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="32">
-        <v>825</v>
-      </c>
-      <c r="C6" s="33">
-        <v>80</v>
-      </c>
-      <c r="D6" s="24">
+        <v>6</v>
+      </c>
+      <c r="B6" s="51">
+        <v>816</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="51">
         <v>800</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="60" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="32">
-        <v>837</v>
-      </c>
-      <c r="C7" s="33">
-        <v>80</v>
-      </c>
-      <c r="D7" s="24">
+        <v>8</v>
+      </c>
+      <c r="B7" s="51">
+        <v>815</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="51">
         <v>800</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="32">
-        <v>804</v>
-      </c>
-      <c r="C8" s="33">
-        <v>80</v>
-      </c>
-      <c r="D8" s="24">
-        <v>800</v>
-      </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="51">
+        <v>811</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="51">
+        <v>900</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="32">
-        <v>805</v>
-      </c>
-      <c r="C9" s="33">
-        <v>80</v>
-      </c>
-      <c r="D9" s="24">
-        <v>850</v>
-      </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
+        <v>20</v>
+      </c>
+      <c r="B9" s="51">
+        <v>832</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="51">
+        <v>800</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="32">
-        <v>840</v>
-      </c>
-      <c r="C10" s="33">
-        <v>70</v>
-      </c>
-      <c r="D10" s="24">
-        <v>800</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="51">
+        <v>831</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="51">
+        <v>850</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="32">
-        <v>813</v>
-      </c>
-      <c r="C11" s="33">
-        <v>70</v>
-      </c>
-      <c r="D11" s="24">
-        <v>800</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
+        <v>30</v>
+      </c>
+      <c r="B11" s="51">
+        <v>829</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="51">
+        <v>950</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="32">
-        <v>801</v>
-      </c>
-      <c r="C12" s="33">
-        <v>90</v>
-      </c>
-      <c r="D12" s="24">
-        <v>800</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="51">
+        <v>839</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="51">
+        <v>850</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="32">
-        <v>809</v>
-      </c>
-      <c r="C13" s="33">
-        <v>100</v>
-      </c>
-      <c r="D13" s="24">
-        <v>950</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="A13" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="51">
+        <v>826</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="51">
+        <v>850</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
     </row>
     <row r="14" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="27">
-        <v>806</v>
-      </c>
-      <c r="C14" s="28">
-        <v>80</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
+      <c r="A14" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="54">
+        <v>821</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="27">
-        <v>802</v>
-      </c>
-      <c r="C15" s="28">
-        <v>90</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
+      <c r="A15" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="54">
+        <v>828</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="54">
+        <v>800</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="27">
-        <v>816</v>
-      </c>
-      <c r="C16" s="28">
-        <v>90</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+      <c r="A16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="54">
+        <v>825</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="54">
+        <v>800</v>
+      </c>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="27">
-        <v>814</v>
-      </c>
-      <c r="C17" s="28">
-        <v>70</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="56" t="s">
+      <c r="A17" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="54">
+        <v>837</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="54">
+        <v>800</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="27">
-        <v>815</v>
-      </c>
-      <c r="C18" s="28">
-        <v>70</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
+      <c r="A18" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="54">
+        <v>804</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="54">
+        <v>800</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
       <c r="N18" s="31"/>
     </row>
     <row r="19" spans="1:14" s="22" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="27">
-        <v>812</v>
-      </c>
-      <c r="C19" s="28">
-        <v>100</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="60" t="s">
+      <c r="A19" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="54">
+        <v>805</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="54">
+        <v>850</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="27">
-        <v>811</v>
-      </c>
-      <c r="C20" s="28">
-        <v>80</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="57" t="s">
+      <c r="A20" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="54">
+        <v>840</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="54">
+        <v>800</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="F20" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="27">
-        <v>838</v>
-      </c>
-      <c r="C21" s="28">
-        <v>70</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
+      <c r="A21" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="54">
+        <v>813</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="54">
+        <v>800</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="N21" s="31"/>
     </row>
     <row r="22" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="27">
-        <v>807</v>
-      </c>
-      <c r="C22" s="28">
-        <v>90</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
+      <c r="A22" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="54">
+        <v>801</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="54">
+        <v>800</v>
+      </c>
+      <c r="E22" s="60"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="N22" s="31"/>
     </row>
     <row r="23" spans="1:14" s="22" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="27">
-        <v>832</v>
-      </c>
-      <c r="C23" s="28">
-        <v>70</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
+      <c r="A23" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="54">
+        <v>809</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="54">
+        <v>950</v>
+      </c>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
       <c r="N23" s="31"/>
     </row>
     <row r="24" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="27">
-        <v>827</v>
-      </c>
-      <c r="C24" s="28">
+      <c r="A24" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="55">
+        <v>814</v>
+      </c>
+      <c r="C24" s="56">
+        <v>70</v>
+      </c>
+      <c r="D24" s="54">
+        <v>950</v>
+      </c>
+      <c r="E24" s="60"/>
+      <c r="F24" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="55">
+        <v>812</v>
+      </c>
+      <c r="C25" s="56">
         <v>100</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="N24" s="31"/>
-    </row>
-    <row r="25" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="27">
-        <v>831</v>
-      </c>
-      <c r="C25" s="28">
+      <c r="D25" s="54">
+        <v>900</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="N25" s="31"/>
+    </row>
+    <row r="26" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="55">
+        <v>838</v>
+      </c>
+      <c r="C26" s="56">
         <v>70</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="N25" s="31"/>
-    </row>
-    <row r="26" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="27">
-        <v>829</v>
-      </c>
-      <c r="C26" s="28">
-        <v>100</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
+      <c r="D26" s="54">
+        <v>800</v>
+      </c>
+      <c r="E26" s="60"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
@@ -2759,132 +2846,144 @@
       <c r="N26" s="31"/>
     </row>
     <row r="27" spans="1:14" s="22" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="55">
+        <v>807</v>
+      </c>
+      <c r="C27" s="56">
+        <v>90</v>
+      </c>
+      <c r="D27" s="54">
+        <v>800</v>
+      </c>
+      <c r="E27" s="60"/>
+      <c r="F27" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="N27" s="31"/>
+    </row>
+    <row r="28" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="55">
+        <v>827</v>
+      </c>
+      <c r="C28" s="56">
+        <v>100</v>
+      </c>
+      <c r="D28" s="54">
+        <v>850</v>
+      </c>
+      <c r="E28" s="60"/>
+      <c r="F28" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="N28" s="31"/>
+    </row>
+    <row r="29" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B29" s="55">
         <v>836</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C29" s="56">
         <v>80</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="N27" s="31"/>
-    </row>
-    <row r="28" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="27">
-        <v>839</v>
-      </c>
-      <c r="C28" s="28">
-        <v>70</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="N28" s="31"/>
-    </row>
-    <row r="29" spans="1:14" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="D29" s="54">
+        <v>800</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="N29" s="31"/>
+    </row>
+    <row r="30" spans="1:14" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B30" s="55">
         <v>803</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C30" s="56">
         <v>80</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="N29" s="31"/>
-    </row>
-    <row r="30" spans="1:14" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="27">
-        <v>826</v>
-      </c>
-      <c r="C30" s="28">
+      <c r="D30" s="54">
+        <v>800</v>
+      </c>
+      <c r="E30" s="60"/>
+      <c r="F30" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="N30" s="31"/>
+    </row>
+    <row r="31" spans="1:14" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="55">
+        <v>810</v>
+      </c>
+      <c r="C31" s="56">
         <v>80</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="N30" s="31"/>
-    </row>
-    <row r="31" spans="1:14" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="27">
-        <v>810</v>
-      </c>
-      <c r="C31" s="28">
+      <c r="D31" s="54">
+        <v>900</v>
+      </c>
+      <c r="E31" s="60"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="1:14" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="55">
+        <v>835</v>
+      </c>
+      <c r="C32" s="56">
         <v>80</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="N31" s="31"/>
-    </row>
-    <row r="32" spans="1:14" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="27">
-        <v>835</v>
-      </c>
-      <c r="C32" s="28">
-        <v>80</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
+      <c r="D32" s="54">
+        <v>850</v>
+      </c>
+      <c r="E32" s="60"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
       <c r="N32" s="31"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="53"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
     </row>
     <row r="34" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="47"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
       <c r="J34" s="45"/>
       <c r="K34" s="45"/>
       <c r="L34" s="45"/>
@@ -2895,45 +2994,50 @@
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
       <c r="E35" s="49"/>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="49"/>
       <c r="L35" s="49"/>
       <c r="M35" s="49"/>
     </row>
     <row r="36" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-    </row>
-    <row r="37" spans="1:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+    </row>
+    <row r="37" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="48"/>
     </row>
-    <row r="38" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="63" t="s">
+    <row r="38" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F34:I34"/>
     <mergeCell ref="F7:I9"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="F11:I12"/>
@@ -2950,13 +3054,8 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F34:I34"/>
   </mergeCells>
-  <pageMargins left="0.8" right="0.7" top="1" bottom="1" header="0" footer="0"/>
+  <pageMargins left="0.7" right="0.6" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="13" max="42" man="1"/>
